--- a/biology/Botanique/Promenade_Thérèse-Pierre/Promenade_Thérèse-Pierre.xlsx
+++ b/biology/Botanique/Promenade_Thérèse-Pierre/Promenade_Thérèse-Pierre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Promenade_Th%C3%A9r%C3%A8se-Pierre</t>
+          <t>Promenade_Thérèse-Pierre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La  promenade Thérèse Pierre est un square du 17e arrondissement de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Promenade_Th%C3%A9r%C3%A8se-Pierre</t>
+          <t>Promenade_Thérèse-Pierre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La promenade poursuit la promenade Rosemonde-Pujol, entre la rue Laugier et la rue Bayen.
 Le site est desservi par la ligne   à la station Pereire.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Promenade_Th%C3%A9r%C3%A8se-Pierre</t>
+          <t>Promenade_Thérèse-Pierre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La promenade comprend une allée entourée de massifs de rosiers, de magnolias étoilés, bruyères, rhododendrons, Pieris, azalées, camélias, pivoines, hémérocalles et des pergolas avec clématites, houblon, glycine, chèvrefeuille et deux cents poiriers à feuilles de saule. Elle comprend des espaces clos ou ouverts avec espaces de jeux.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Promenade_Th%C3%A9r%C3%A8se-Pierre</t>
+          <t>Promenade_Thérèse-Pierre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La promenade rend hommage à la résistante Thérèse Pierre, (1908-1943), morte sous la torture.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Promenade_Th%C3%A9r%C3%A8se-Pierre</t>
+          <t>Promenade_Thérèse-Pierre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +624,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La promenade qui dissimule la ligne souterraine du RER C fut aménagée en 1989 sur la couverture réalisée en 1986-1987 de la tranchée de l'ancienne ligne d'Auteuil. Cette ligne ouverte en 1854, fermée en 1985, et remplacée sur ce tronçon par la branche nord-est du RER C entrée en service en 1988, comportait depuis 1900 quatre voies au milieu du boulevard.
-Elle est dénommée officiellement depuis 2019[1],[2].
+Elle est dénommée officiellement depuis 2019,.
 </t>
         </is>
       </c>
